--- a/BI/data/clearance_bins_vs_win_percentage_tableau.xlsx
+++ b/BI/data/clearance_bins_vs_win_percentage_tableau.xlsx
@@ -475,19 +475,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
-        <v>42.02898550724638</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="F2" t="n">
         <v>2.5</v>
       </c>
       <c r="G2" t="n">
-        <v>36.46326380069057</v>
+        <v>36.75692589594782</v>
       </c>
     </row>
     <row r="3">
@@ -500,19 +500,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D3" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E3" t="n">
-        <v>39.6797153024911</v>
+        <v>39.8936170212766</v>
       </c>
       <c r="F3" t="n">
         <v>7.5</v>
       </c>
       <c r="G3" t="n">
-        <v>38.97097720045258</v>
+        <v>39.22866972769905</v>
       </c>
     </row>
     <row r="4">
@@ -525,19 +525,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="D4" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E4" t="n">
-        <v>40.26548672566372</v>
+        <v>40.33539276257723</v>
       </c>
       <c r="F4" t="n">
         <v>12.5</v>
       </c>
       <c r="G4" t="n">
-        <v>41.47869060021458</v>
+        <v>41.70041355945028</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
         <v>17.5</v>
       </c>
       <c r="G5" t="n">
-        <v>43.98640399997659</v>
+        <v>44.17215739120152</v>
       </c>
     </row>
     <row r="6">
@@ -575,19 +575,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="D6" t="n">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E6" t="n">
-        <v>44.6594427244582</v>
+        <v>44.70224284609435</v>
       </c>
       <c r="F6" t="n">
         <v>22.5</v>
       </c>
       <c r="G6" t="n">
-        <v>46.49411739973858</v>
+        <v>46.64390122295275</v>
       </c>
     </row>
     <row r="7">
@@ -612,7 +612,7 @@
         <v>27.5</v>
       </c>
       <c r="G7" t="n">
-        <v>49.0018307995006</v>
+        <v>49.11564505470398</v>
       </c>
     </row>
     <row r="8">
@@ -637,7 +637,7 @@
         <v>32.5</v>
       </c>
       <c r="G8" t="n">
-        <v>51.50954419926259</v>
+        <v>51.58738888645522</v>
       </c>
     </row>
     <row r="9">
@@ -650,19 +650,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D9" t="n">
         <v>196</v>
       </c>
       <c r="E9" t="n">
-        <v>52.97297297297298</v>
+        <v>52.83018867924528</v>
       </c>
       <c r="F9" t="n">
         <v>37.5</v>
       </c>
       <c r="G9" t="n">
-        <v>54.0172575990246</v>
+        <v>54.05913271820645</v>
       </c>
     </row>
     <row r="10">
@@ -687,7 +687,7 @@
         <v>42.5</v>
       </c>
       <c r="G10" t="n">
-        <v>56.5249709987866</v>
+        <v>56.53087654995768</v>
       </c>
     </row>
     <row r="11">
@@ -712,7 +712,7 @@
         <v>47.5</v>
       </c>
       <c r="G11" t="n">
-        <v>59.03268439854861</v>
+        <v>59.00262038170892</v>
       </c>
     </row>
     <row r="12">
@@ -737,7 +737,7 @@
         <v>52.5</v>
       </c>
       <c r="G12" t="n">
-        <v>61.54039779831061</v>
+        <v>61.47436421346015</v>
       </c>
     </row>
     <row r="13">
@@ -762,7 +762,7 @@
         <v>57.5</v>
       </c>
       <c r="G13" t="n">
-        <v>64.04811119807262</v>
+        <v>63.94610804521138</v>
       </c>
     </row>
     <row r="14">
@@ -787,7 +787,7 @@
         <v>62.5</v>
       </c>
       <c r="G14" t="n">
-        <v>66.55582459783462</v>
+        <v>66.41785187696262</v>
       </c>
     </row>
   </sheetData>
